--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.7518420399383</v>
+        <v>26.04517333333333</v>
       </c>
       <c r="N2">
-        <v>2.7518420399383</v>
+        <v>78.13552</v>
       </c>
       <c r="O2">
-        <v>0.5964074284397364</v>
+        <v>0.9210237118384171</v>
       </c>
       <c r="P2">
-        <v>0.5964074284397364</v>
+        <v>0.921023711838417</v>
       </c>
       <c r="Q2">
-        <v>70.30340421558668</v>
+        <v>704.2329848319822</v>
       </c>
       <c r="R2">
-        <v>70.30340421558668</v>
+        <v>6338.096863487839</v>
       </c>
       <c r="S2">
-        <v>0.04059108560750696</v>
+        <v>0.06535757613398491</v>
       </c>
       <c r="T2">
-        <v>0.04059108560750696</v>
+        <v>0.06535757613398491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.86218841762559</v>
+        <v>0.3302223333333333</v>
       </c>
       <c r="N3">
-        <v>1.86218841762559</v>
+        <v>0.990667</v>
       </c>
       <c r="O3">
-        <v>0.4035925715602636</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="P3">
-        <v>0.4035925715602636</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="Q3">
-        <v>47.57474562488003</v>
+        <v>8.928850520026556</v>
       </c>
       <c r="R3">
-        <v>47.57474562488003</v>
+        <v>80.35965468023899</v>
       </c>
       <c r="S3">
-        <v>0.02746823704998817</v>
+        <v>0.0008286576178916634</v>
       </c>
       <c r="T3">
-        <v>0.02746823704998817</v>
+        <v>0.0008286576178916635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>341.49718029295</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H4">
-        <v>341.49718029295</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I4">
-        <v>0.909749636939773</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J4">
-        <v>0.909749636939773</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.7518420399383</v>
+        <v>1.903109</v>
       </c>
       <c r="N4">
-        <v>2.7518420399383</v>
+        <v>5.709327</v>
       </c>
       <c r="O4">
-        <v>0.5964074284397364</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="P4">
-        <v>0.5964074284397364</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="Q4">
-        <v>939.7462972505291</v>
+        <v>51.45798472438432</v>
       </c>
       <c r="R4">
-        <v>939.7462972505291</v>
+        <v>463.1218625194589</v>
       </c>
       <c r="S4">
-        <v>0.5425814414912338</v>
+        <v>0.004775648438460711</v>
       </c>
       <c r="T4">
-        <v>0.5425814414912338</v>
+        <v>0.004775648438460712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.86218841762559</v>
+        <v>26.04517333333333</v>
       </c>
       <c r="N5">
-        <v>1.86218841762559</v>
+        <v>78.13552</v>
       </c>
       <c r="O5">
-        <v>0.4035925715602636</v>
+        <v>0.9210237118384171</v>
       </c>
       <c r="P5">
-        <v>0.4035925715602636</v>
+        <v>0.921023711838417</v>
       </c>
       <c r="Q5">
-        <v>635.9320937933294</v>
+        <v>9000.341448262026</v>
       </c>
       <c r="R5">
-        <v>635.9320937933294</v>
+        <v>81003.07303435824</v>
       </c>
       <c r="S5">
-        <v>0.3671681954485391</v>
+        <v>0.8352924587549523</v>
       </c>
       <c r="T5">
-        <v>0.3671681954485391</v>
+        <v>0.8352924587549523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.32995960382183</v>
+        <v>345.566579</v>
       </c>
       <c r="H6">
-        <v>8.32995960382183</v>
+        <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.02219104040273193</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J6">
-        <v>0.02219104040273193</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.7518420399383</v>
+        <v>0.3302223333333333</v>
       </c>
       <c r="N6">
-        <v>2.7518420399383</v>
+        <v>0.990667</v>
       </c>
       <c r="O6">
-        <v>0.5964074284397364</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="P6">
-        <v>0.5964074284397364</v>
+        <v>0.01167750336256582</v>
       </c>
       <c r="Q6">
-        <v>22.9227330287847</v>
+        <v>114.1138020393977</v>
       </c>
       <c r="R6">
-        <v>22.9227330287847</v>
+        <v>1027.024218354579</v>
       </c>
       <c r="S6">
-        <v>0.01323490134099564</v>
+        <v>0.01059053135164893</v>
       </c>
       <c r="T6">
-        <v>0.01323490134099564</v>
+        <v>0.01059053135164893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.32995960382183</v>
+        <v>345.566579</v>
       </c>
       <c r="H7">
-        <v>8.32995960382183</v>
+        <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.02219104040273193</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J7">
-        <v>0.02219104040273193</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.86218841762559</v>
+        <v>1.903109</v>
       </c>
       <c r="N7">
-        <v>1.86218841762559</v>
+        <v>5.709327</v>
       </c>
       <c r="O7">
-        <v>0.4035925715602636</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="P7">
-        <v>0.4035925715602636</v>
+        <v>0.06729878479901708</v>
       </c>
       <c r="Q7">
-        <v>15.51195429352606</v>
+        <v>657.650866594111</v>
       </c>
       <c r="R7">
-        <v>15.51195429352606</v>
+        <v>5918.857799346999</v>
       </c>
       <c r="S7">
-        <v>0.008956139061736288</v>
+        <v>0.06103444102843413</v>
       </c>
       <c r="T7">
-        <v>0.008956139061736288</v>
+        <v>0.06103444102843414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.428738666666668</v>
+      </c>
+      <c r="H8">
+        <v>25.286216</v>
+      </c>
+      <c r="I8">
+        <v>0.0221206866746274</v>
+      </c>
+      <c r="J8">
+        <v>0.02212068667462741</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>26.04517333333333</v>
+      </c>
+      <c r="N8">
+        <v>78.13552</v>
+      </c>
+      <c r="O8">
+        <v>0.9210237118384171</v>
+      </c>
+      <c r="P8">
+        <v>0.921023711838417</v>
+      </c>
+      <c r="Q8">
+        <v>219.5279595547022</v>
+      </c>
+      <c r="R8">
+        <v>1975.75163599232</v>
+      </c>
+      <c r="S8">
+        <v>0.02037367694947994</v>
+      </c>
+      <c r="T8">
+        <v>0.02037367694947994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.428738666666668</v>
+      </c>
+      <c r="H9">
+        <v>25.286216</v>
+      </c>
+      <c r="I9">
+        <v>0.0221206866746274</v>
+      </c>
+      <c r="J9">
+        <v>0.02212068667462741</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3302223333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.990667</v>
+      </c>
+      <c r="O9">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="P9">
+        <v>0.01167750336256582</v>
+      </c>
+      <c r="Q9">
+        <v>2.783357749563556</v>
+      </c>
+      <c r="R9">
+        <v>25.050219746072</v>
+      </c>
+      <c r="S9">
+        <v>0.0002583143930252265</v>
+      </c>
+      <c r="T9">
+        <v>0.0002583143930252266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.428738666666668</v>
+      </c>
+      <c r="H10">
+        <v>25.286216</v>
+      </c>
+      <c r="I10">
+        <v>0.0221206866746274</v>
+      </c>
+      <c r="J10">
+        <v>0.02212068667462741</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.903109</v>
+      </c>
+      <c r="N10">
+        <v>5.709327</v>
+      </c>
+      <c r="O10">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="P10">
+        <v>0.06729878479901708</v>
+      </c>
+      <c r="Q10">
+        <v>16.04080841518133</v>
+      </c>
+      <c r="R10">
+        <v>144.367275736632</v>
+      </c>
+      <c r="S10">
+        <v>0.001488695332122234</v>
+      </c>
+      <c r="T10">
+        <v>0.001488695332122234</v>
       </c>
     </row>
   </sheetData>
